--- a/course-catalogs/CLR/CLR_standard_input_course_catalogs.xlsx
+++ b/course-catalogs/CLR/CLR_standard_input_course_catalogs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\domm-metadata\course_catalogs\CLR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\domm-metadata\course-catalogs\CLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3141,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,7 +3209,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>631</v>
       </c>
